--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value908.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value908.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.785855835388737</v>
+        <v>1.530281782150269</v>
       </c>
       <c r="B1">
-        <v>1.973470241576604</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.018772796009888</v>
+        <v>1.999173641204834</v>
       </c>
       <c r="D1">
-        <v>2.632667620934193</v>
+        <v>1.221300601959229</v>
       </c>
       <c r="E1">
-        <v>2.782881383277025</v>
+        <v>0.9600273966789246</v>
       </c>
     </row>
   </sheetData>
